--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp6.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Peak Info; File 0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Signal Data; File 0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Signal Data; File 0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Peak Info; File 0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,20 +480,20 @@
         <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-11.02166666666668</v>
+        <v>-11.02166666666666</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-11.02166666666668</v>
+        <v>-11.02166666666666</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
         <v>-0.012</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.1360555555555489</v>
+        <v>-0.1360555555555631</v>
       </c>
     </row>
     <row r="3">
@@ -504,17 +504,17 @@
         <v>-11.13857142857143</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-11.03101984126985</v>
+        <v>-11.03101984126984</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.1075515873015824</v>
+        <v>-0.1075515873015931</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
         <v>-0.092</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.04494444444444134</v>
+        <v>-0.04494444444444667</v>
       </c>
     </row>
     <row r="4">
@@ -525,17 +525,17 @@
         <v>-11.17642857142858</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-11.04037301587303</v>
+        <v>-11.04037301587301</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1360555555555489</v>
+        <v>-0.1360555555555631</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
         <v>-0.148</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-0.001619047619044522</v>
+        <v>-0.001619047619048075</v>
       </c>
     </row>
     <row r="5">
@@ -546,17 +546,17 @@
         <v>-11.1652380952381</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-11.0497261904762</v>
+        <v>-11.04972619047619</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1155119047619024</v>
+        <v>-0.1155119047619095</v>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="n">
         <v>-0.196</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>-0.04033333333333111</v>
+        <v>-0.04033333333333466</v>
       </c>
     </row>
     <row r="6">
@@ -564,13 +564,13 @@
         <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-11.13952380952382</v>
+        <v>-11.13952380952381</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-11.05907936507938</v>
+        <v>-11.05907936507936</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.08044444444444387</v>
+        <v>-0.08044444444444743</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -581,13 +581,13 @@
         <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-11.13285714285715</v>
+        <v>-11.13285714285714</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-11.06843253968255</v>
+        <v>-11.06843253968254</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.06442460317460252</v>
+        <v>-0.06442460317460785</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -598,13 +598,13 @@
         <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-11.12857142857144</v>
+        <v>-11.12857142857143</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-11.07778571428572</v>
+        <v>-11.07778571428571</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.05078571428571266</v>
+        <v>-0.05078571428571799</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -615,13 +615,13 @@
         <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-11.12952380952382</v>
+        <v>-11.12952380952381</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-11.0871388888889</v>
+        <v>-11.08713888888889</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.04238492063491961</v>
+        <v>-0.04238492063492316</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -635,10 +635,10 @@
         <v>-11.13238095238096</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-11.09649206349207</v>
+        <v>-11.09649206349206</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.03588888888888775</v>
+        <v>-0.03588888888889485</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -649,13 +649,13 @@
         <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-11.13619047619049</v>
+        <v>-11.13619047619048</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-11.10584523809525</v>
+        <v>-11.10584523809524</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.03034523809523826</v>
+        <v>-0.03034523809524181</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -666,13 +666,13 @@
         <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-11.14142857142858</v>
+        <v>-11.14142857142857</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-11.11519841269842</v>
+        <v>-11.11519841269841</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.02623015873015611</v>
+        <v>-0.02623015873016321</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -683,13 +683,13 @@
         <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-11.15095238095239</v>
+        <v>-11.15095238095238</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-11.1245515873016</v>
+        <v>-11.12455158730159</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.02640079365079195</v>
+        <v>-0.02640079365079728</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -700,13 +700,13 @@
         <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-11.16238095238096</v>
+        <v>-11.16238095238095</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-11.13390476190477</v>
+        <v>-11.13390476190476</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.02847619047618721</v>
+        <v>-0.02847619047619432</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -720,10 +720,10 @@
         <v>-11.17666666666667</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-11.14325793650795</v>
+        <v>-11.14325793650793</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.03340873015872781</v>
+        <v>-0.03340873015873491</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -734,13 +734,13 @@
         <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-11.18952380952382</v>
+        <v>-11.18952380952381</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-11.15261111111112</v>
+        <v>-11.15261111111111</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.03691269841269573</v>
+        <v>-0.03691269841269929</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -751,13 +751,13 @@
         <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-11.20095238095239</v>
+        <v>-11.20095238095238</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-11.1619642857143</v>
+        <v>-11.16196428571428</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.03898809523809099</v>
+        <v>-0.0389880952380981</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -768,13 +768,13 @@
         <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-11.21000000000001</v>
+        <v>-11.21</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-11.17131746031747</v>
+        <v>-11.17131746031746</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.03868253968253832</v>
+        <v>-0.0386825396825401</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -785,13 +785,13 @@
         <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-11.21904761904763</v>
+        <v>-11.21904761904762</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-11.18067063492065</v>
+        <v>-11.18067063492063</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.03837698412698032</v>
+        <v>-0.03837698412698565</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -802,13 +802,13 @@
         <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-11.23142857142858</v>
+        <v>-11.23142857142857</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-11.19002380952382</v>
+        <v>-11.19002380952381</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.04140476190475972</v>
+        <v>-0.04140476190476328</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -819,13 +819,13 @@
         <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-11.24285714285715</v>
+        <v>-11.24285714285714</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-11.19937698412699</v>
+        <v>-11.19937698412698</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.04348015873015498</v>
+        <v>-0.04348015873016209</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -836,13 +836,13 @@
         <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-11.25333333333334</v>
+        <v>-11.25333333333333</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-11.20873015873017</v>
+        <v>-11.20873015873016</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.0446031746031732</v>
+        <v>-0.04460317460317675</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -856,10 +856,10 @@
         <v>-11.26285714285715</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-11.21808333333334</v>
+        <v>-11.21808333333333</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.04477380952380727</v>
+        <v>-0.04477380952381438</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -870,13 +870,13 @@
         <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-11.27238095238096</v>
+        <v>-11.27238095238095</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-11.22743650793652</v>
+        <v>-11.22743650793651</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.04494444444444134</v>
+        <v>-0.04494444444444667</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -887,13 +887,13 @@
         <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-11.27857142857144</v>
+        <v>-11.27857142857143</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-11.23678968253969</v>
+        <v>-11.23678968253968</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.04178174603174512</v>
+        <v>-0.04178174603175044</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -904,13 +904,13 @@
         <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-11.28761904761906</v>
+        <v>-11.28761904761905</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-11.24614285714287</v>
+        <v>-11.24614285714286</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.04147619047618889</v>
+        <v>-0.04147619047619422</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -921,13 +921,13 @@
         <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-11.29285714285715</v>
+        <v>-11.29285714285714</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-11.25549603174604</v>
+        <v>-11.25549603174603</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.03736111111111029</v>
+        <v>-0.03736111111111384</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -938,13 +938,13 @@
         <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-11.29809523809525</v>
+        <v>-11.29809523809524</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-11.26484920634922</v>
+        <v>-11.2648492063492</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.03324603174602991</v>
+        <v>-0.03324603174603524</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -955,13 +955,13 @@
         <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-11.30285714285715</v>
+        <v>-11.30285714285714</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-11.27420238095239</v>
+        <v>-11.27420238095238</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.02865476190475924</v>
+        <v>-0.02865476190476457</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -975,10 +975,10 @@
         <v>-11.30666666666667</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-11.28355555555557</v>
+        <v>-11.28355555555555</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.02311111111110797</v>
+        <v>-0.02311111111111508</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -989,13 +989,13 @@
         <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-11.30904761904763</v>
+        <v>-11.30904761904762</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-11.29290873015874</v>
+        <v>-11.29290873015873</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.01613888888888759</v>
+        <v>-0.01613888888889292</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1009,10 +1009,10 @@
         <v>-11.31476190476191</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-11.30226190476191</v>
+        <v>-11.3022619047619</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.01249999999999929</v>
+        <v>-0.01250000000000107</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1023,13 +1023,13 @@
         <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-11.31904761904763</v>
+        <v>-11.31904761904762</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-11.31161507936509</v>
+        <v>-11.31161507936508</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.007432539682538319</v>
+        <v>-0.007432539682541872</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1043,10 +1043,10 @@
         <v>-11.32571428571429</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-11.32096825396826</v>
+        <v>-11.32096825396825</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.004746031746028834</v>
+        <v>-0.004746031746032386</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1060,10 +1060,10 @@
         <v>-11.33333333333334</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-11.33032142857144</v>
+        <v>-11.33032142857143</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.003011904761903494</v>
+        <v>-0.003011904761908824</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1074,13 +1074,13 @@
         <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-11.3404761904762</v>
+        <v>-11.34047619047619</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-11.33967460317461</v>
+        <v>-11.3396746031746</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.0008015873015860819</v>
+        <v>-0.0008015873015896346</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1091,13 +1091,13 @@
         <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-11.34904761904763</v>
+        <v>-11.34904761904762</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-11.34902777777779</v>
+        <v>-11.34902777777778</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-1.984126983956003e-05</v>
+        <v>-1.98412698448891e-05</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1108,13 +1108,13 @@
         <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-11.36000000000001</v>
+        <v>-11.36</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-11.35838095238096</v>
+        <v>-11.35838095238095</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.001619047619044522</v>
+        <v>-0.001619047619048075</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1125,13 +1125,13 @@
         <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-11.36904761904763</v>
+        <v>-11.36904761904762</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-11.36773412698414</v>
+        <v>-11.36773412698413</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.001313492063488297</v>
+        <v>-0.001313492063493626</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1142,13 +1142,13 @@
         <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-11.3804761904762</v>
+        <v>-11.38047619047619</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-11.37708730158731</v>
+        <v>-11.3770873015873</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.003388888888885333</v>
+        <v>-0.003388888888890662</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1159,13 +1159,13 @@
         <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-11.39238095238096</v>
+        <v>-11.39238095238095</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-11.38644047619049</v>
+        <v>-11.38644047619048</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.005940476190472666</v>
+        <v>-0.005940476190477995</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1179,10 +1179,10 @@
         <v>-11.40714285714286</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-11.39579365079366</v>
+        <v>-11.39579365079365</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.01134920634920356</v>
+        <v>-0.01134920634920888</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1193,13 +1193,13 @@
         <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-11.42190476190477</v>
+        <v>-11.42190476190476</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-11.40514682539684</v>
+        <v>-11.40514682539682</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.01675793650793445</v>
+        <v>-0.016757936507938</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1210,13 +1210,13 @@
         <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-11.43809523809525</v>
+        <v>-11.43809523809524</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-11.41450000000001</v>
+        <v>-11.4145</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.023595238095238</v>
+        <v>-0.02359523809524156</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1227,13 +1227,13 @@
         <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-11.45285714285715</v>
+        <v>-11.45285714285714</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-11.42385317460318</v>
+        <v>-11.42385317460317</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.02900396825396712</v>
+        <v>-0.02900396825397067</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1244,13 +1244,13 @@
         <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-11.46761904761906</v>
+        <v>-11.46761904761905</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-11.43320634920636</v>
+        <v>-11.43320634920635</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.03441269841269801</v>
+        <v>-0.03441269841269978</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1261,13 +1261,13 @@
         <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-11.47952380952382</v>
+        <v>-11.47952380952381</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-11.44255952380953</v>
+        <v>-11.44255952380952</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.03696428571428534</v>
+        <v>-0.03696428571428889</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1278,13 +1278,13 @@
         <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-11.49095238095239</v>
+        <v>-11.49095238095238</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-11.45191269841271</v>
+        <v>-11.4519126984127</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.0390396825396806</v>
+        <v>-0.03903968253968415</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1295,13 +1295,13 @@
         <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-11.50000000000001</v>
+        <v>-11.5</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-11.46126587301588</v>
+        <v>-11.46126587301587</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.03873412698412437</v>
+        <v>-0.03873412698412793</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1312,13 +1312,13 @@
         <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-11.51095238095239</v>
+        <v>-11.51095238095238</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-11.47061904761906</v>
+        <v>-11.47061904761905</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.04033333333333111</v>
+        <v>-0.04033333333333466</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1329,13 +1329,13 @@
         <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-11.51952380952382</v>
+        <v>-11.51952380952381</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-11.47997222222223</v>
+        <v>-11.47997222222222</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.03955158730158459</v>
+        <v>-0.03955158730158992</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1349,10 +1349,10 @@
         <v>-11.52761904761905</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-11.48932539682541</v>
+        <v>-11.4893253968254</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.03829365079364777</v>
+        <v>-0.03829365079365132</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1366,10 +1366,10 @@
         <v>-11.53380952380953</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-11.49867857142858</v>
+        <v>-11.49867857142857</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.03513095238094976</v>
+        <v>-0.03513095238095332</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1383,10 +1383,10 @@
         <v>-11.53666666666667</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-11.50803174603176</v>
+        <v>-11.50803174603175</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.0286349206349179</v>
+        <v>-0.02863492063492146</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1397,13 +1397,13 @@
         <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-11.54000000000001</v>
+        <v>-11.54</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-11.51738492063493</v>
+        <v>-11.51738492063492</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.02261507936507634</v>
+        <v>-0.02261507936507812</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1414,13 +1414,13 @@
         <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-11.54333333333334</v>
+        <v>-11.54333333333333</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-11.52673809523811</v>
+        <v>-11.52673809523809</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.01659523809523478</v>
+        <v>-0.01659523809523833</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1431,13 +1431,13 @@
         <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-11.54619047619048</v>
+        <v>-11.54619047619047</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-11.53609126984128</v>
+        <v>-11.53609126984127</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.01009920634920292</v>
+        <v>-0.01009920634920469</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1448,13 +1448,13 @@
         <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-11.55333333333334</v>
+        <v>-11.55333333333333</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-11.54544444444445</v>
+        <v>-11.54544444444444</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.00788888888888728</v>
+        <v>-0.007888888888890833</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1465,13 +1465,13 @@
         <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-11.56000000000001</v>
+        <v>-11.56</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-11.55479761904763</v>
+        <v>-11.55479761904762</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.005202380952376018</v>
+        <v>-0.005202380952381347</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1485,10 +1485,10 @@
         <v>-11.56476190476191</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-11.5641507936508</v>
+        <v>-11.56415079365079</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.000611111111107121</v>
+        <v>-0.0006111111111124501</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1499,13 +1499,13 @@
         <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-11.57380952380953</v>
+        <v>-11.57380952380952</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-11.57350396825398</v>
+        <v>-11.57350396825397</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.000305555555550896</v>
+        <v>-0.0003055555555544487</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1516,13 +1516,13 @@
         <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-11.58285714285715</v>
+        <v>-11.58285714285714</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-11.58285714285715</v>
+        <v>-11.58285714285714</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>0</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1550,10 +1550,10 @@
         <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-11.61190476190477</v>
+        <v>-11.61190476190476</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-11.61190476190477</v>
+        <v>-11.61190476190476</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>0</v>
@@ -1567,10 +1567,10 @@
         <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-11.62714285714287</v>
+        <v>-11.62714285714286</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-11.62714285714287</v>
+        <v>-11.62714285714286</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-11.64238095238096</v>
+        <v>-11.64238095238095</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-11.64238095238096</v>
+        <v>-11.64238095238095</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>0</v>
@@ -1601,10 +1601,10 @@
         <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-11.6604761904762</v>
+        <v>-11.66047619047619</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-11.6604761904762</v>
+        <v>-11.66047619047619</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-11.67809523809525</v>
+        <v>-11.67809523809524</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-11.67809523809525</v>
+        <v>-11.67809523809524</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-11.69952380952382</v>
+        <v>-11.69952380952381</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-11.69952380952382</v>
+        <v>-11.69952380952381</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-11.72380952380953</v>
+        <v>-11.72380952380952</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-11.72380952380953</v>
+        <v>-11.72380952380952</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-11.74904761904763</v>
+        <v>-11.74904761904762</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-11.74904761904763</v>
+        <v>-11.74904761904762</v>
       </c>
       <c r="D71" s="2" t="n">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-11.85238095238096</v>
+        <v>-11.85238095238095</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-11.85238095238096</v>
+        <v>-11.85238095238095</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-11.8804761904762</v>
+        <v>-11.88047619047619</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-11.8804761904762</v>
+        <v>-11.88047619047619</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-11.90904761904763</v>
+        <v>-11.90904761904762</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-11.90904761904763</v>
+        <v>-11.90904761904762</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-11.94000000000001</v>
+        <v>-11.94</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-11.94000000000001</v>
+        <v>-11.94</v>
       </c>
       <c r="D78" s="2" t="n">
         <v>0</v>
@@ -1805,10 +1805,10 @@
         <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-11.97000000000001</v>
+        <v>-11.97</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-11.97000000000001</v>
+        <v>-11.97</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>0</v>
@@ -1822,10 +1822,10 @@
         <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-11.99904761904763</v>
+        <v>-11.99904761904762</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-11.99904761904763</v>
+        <v>-11.99904761904762</v>
       </c>
       <c r="D80" s="2" t="n">
         <v>0</v>
@@ -1839,10 +1839,10 @@
         <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-12.0304761904762</v>
+        <v>-12.03047619047619</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-12.0304761904762</v>
+        <v>-12.03047619047619</v>
       </c>
       <c r="D81" s="2" t="n">
         <v>0</v>
@@ -1890,10 +1890,10 @@
         <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-12.12904761904763</v>
+        <v>-12.12904761904762</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-12.12904761904763</v>
+        <v>-12.12904761904762</v>
       </c>
       <c r="D84" s="2" t="n">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-12.19809523809525</v>
+        <v>-12.19809523809524</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-12.19809523809525</v>
+        <v>-12.19809523809524</v>
       </c>
       <c r="D86" s="2" t="n">
         <v>0</v>
@@ -1958,10 +1958,10 @@
         <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-12.27666666666668</v>
+        <v>-12.27666666666667</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-12.27666666666668</v>
+        <v>-12.27666666666667</v>
       </c>
       <c r="D88" s="2" t="n">
         <v>0</v>
@@ -1975,10 +1975,10 @@
         <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-12.31714285714287</v>
+        <v>-12.31714285714286</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-12.31714285714287</v>
+        <v>-12.31714285714286</v>
       </c>
       <c r="D89" s="2" t="n">
         <v>0</v>
@@ -1992,10 +1992,10 @@
         <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-12.35857142857144</v>
+        <v>-12.35857142857143</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-12.35857142857144</v>
+        <v>-12.35857142857143</v>
       </c>
       <c r="D90" s="2" t="n">
         <v>0</v>
@@ -2009,10 +2009,10 @@
         <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-12.40000000000001</v>
+        <v>-12.4</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-12.40000000000001</v>
+        <v>-12.4</v>
       </c>
       <c r="D91" s="2" t="n">
         <v>0</v>
@@ -2026,10 +2026,10 @@
         <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-12.43952380952382</v>
+        <v>-12.43952380952381</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-12.43952380952382</v>
+        <v>-12.43952380952381</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>0</v>
@@ -2060,10 +2060,10 @@
         <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-12.52904761904763</v>
+        <v>-12.52904761904762</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-12.52904761904763</v>
+        <v>-12.52904761904762</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>0</v>
@@ -2145,10 +2145,10 @@
         <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-12.77952380952383</v>
+        <v>-12.77952380952382</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-12.77952380952383</v>
+        <v>-12.77952380952382</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>-0.396</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-12.83452380952383</v>
+        <v>-12.83452380952382</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-12.83452380952383</v>
+        <v>-12.83452380952382</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>-0.012</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.1360555555555489</v>
+        <v>-0.1360555555555631</v>
       </c>
     </row>
     <row r="3">
@@ -2239,7 +2239,7 @@
         <v>-0.092</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.04494444444444134</v>
+        <v>-0.04494444444444667</v>
       </c>
     </row>
     <row r="4">
@@ -2247,7 +2247,7 @@
         <v>-0.148</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.001619047619044522</v>
+        <v>-0.001619047619048075</v>
       </c>
     </row>
     <row r="5">
@@ -2255,7 +2255,7 @@
         <v>-0.196</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.04033333333333111</v>
+        <v>-0.04033333333333466</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp6.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,100 +477,92 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-11.02166666666666</v>
+        <v>-11.28952380952382</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-11.02166666666666</v>
+        <v>-11.28952380952382</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.148</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.1360555555555631</v>
+        <v>-0.001599999999994495</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-11.13857142857143</v>
+        <v>-11.29190476190477</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-11.03101984126984</v>
+        <v>-11.29190476190477</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.1075515873015931</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.196</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.04494444444444667</v>
+        <v>-0.04032380952380521</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-11.17642857142858</v>
+        <v>-11.29690476190477</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-11.04037301587301</v>
+        <v>-11.29690476190477</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1360555555555631</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="n">
-        <v>-0.148</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>-0.001619047619048075</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-11.1652380952381</v>
+        <v>-11.30285714285715</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-11.04972619047619</v>
+        <v>-11.30285714285715</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1155119047619095</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="n">
-        <v>-0.196</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>-0.04033333333333466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-11.13952380952381</v>
+        <v>-11.30666666666668</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-11.05907936507936</v>
+        <v>-11.30666666666668</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.08044444444444743</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -578,16 +570,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-11.13285714285714</v>
+        <v>-11.30904761904763</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-11.06843253968254</v>
+        <v>-11.30904761904763</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.06442460317460785</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -595,16 +587,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-11.12857142857143</v>
+        <v>-11.31476190476191</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-11.07778571428571</v>
+        <v>-11.31476190476191</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.05078571428571799</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -612,16 +604,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-11.12952380952381</v>
+        <v>-11.31904761904763</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-11.08713888888889</v>
+        <v>-11.31904761904763</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.04238492063492316</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -629,16 +621,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-11.13238095238096</v>
+        <v>-11.32571428571429</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-11.09649206349206</v>
+        <v>-11.32571428571429</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.03588888888889485</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -646,16 +638,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-11.13619047619048</v>
+        <v>-11.33333333333334</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-11.10584523809524</v>
+        <v>-11.33333333333334</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.03034523809524181</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -663,16 +655,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-11.14142857142857</v>
+        <v>-11.3404761904762</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-11.11519841269841</v>
+        <v>-11.3404761904762</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.02623015873016321</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -680,16 +672,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-11.15095238095238</v>
+        <v>-11.34904761904763</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-11.12455158730159</v>
+        <v>-11.34904761904763</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.02640079365079728</v>
+        <v>5.329070518200751e-15</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -697,16 +689,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-11.16238095238095</v>
+        <v>-11.36000000000001</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-11.13390476190476</v>
+        <v>-11.35840000000001</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.02847619047619432</v>
+        <v>-0.001599999999994495</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -714,16 +706,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.056</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-11.17666666666667</v>
+        <v>-11.36904761904763</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-11.14325793650793</v>
+        <v>-11.36775238095239</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.03340873015873491</v>
+        <v>-0.001295238095233131</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -731,16 +723,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-11.18952380952381</v>
+        <v>-11.3804761904762</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-11.15261111111111</v>
+        <v>-11.37710476190477</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.03691269841269929</v>
+        <v>-0.003371428571423252</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -748,16 +740,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-11.20095238095238</v>
+        <v>-11.39238095238096</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-11.16196428571428</v>
+        <v>-11.38645714285715</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.0389880952380981</v>
+        <v>-0.005923809523803669</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -765,16 +757,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-11.21</v>
+        <v>-11.40714285714286</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-11.17131746031746</v>
+        <v>-11.39580952380954</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.0386825396825401</v>
+        <v>-0.01133333333332764</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -782,16 +774,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07199999999999999</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-11.21904761904762</v>
+        <v>-11.42190476190477</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-11.18067063492063</v>
+        <v>-11.40516190476192</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.03837698412698565</v>
+        <v>-0.0167428571428534</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -799,16 +791,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.076</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-11.23142857142857</v>
+        <v>-11.43809523809525</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-11.19002380952381</v>
+        <v>-11.4145142857143</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.04140476190476328</v>
+        <v>-0.02358095238095004</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -816,16 +808,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-11.24285714285714</v>
+        <v>-11.45285714285715</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-11.19937698412698</v>
+        <v>-11.42386666666668</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.04348015873016209</v>
+        <v>-0.02899047619047401</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -833,16 +825,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-11.25333333333333</v>
+        <v>-11.46761904761906</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-11.20873015873016</v>
+        <v>-11.43321904761906</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.04460317460317675</v>
+        <v>-0.03439999999999799</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -850,16 +842,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-11.26285714285715</v>
+        <v>-11.47952380952382</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-11.21808333333333</v>
+        <v>-11.44257142857144</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.04477380952381438</v>
+        <v>-0.03695238095237663</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -867,16 +859,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-11.27238095238095</v>
+        <v>-11.49095238095239</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-11.22743650793651</v>
+        <v>-11.45192380952382</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.04494444444444667</v>
+        <v>-0.03902857142856853</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -884,16 +876,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-11.27857142857143</v>
+        <v>-11.50000000000001</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-11.23678968253968</v>
+        <v>-11.4612761904762</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.04178174603175044</v>
+        <v>-0.03872380952380539</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -901,16 +893,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-11.28761904761905</v>
+        <v>-11.51095238095239</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-11.24614285714286</v>
+        <v>-11.47062857142858</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.04147619047619422</v>
+        <v>-0.04032380952380521</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -918,16 +910,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-11.29285714285714</v>
+        <v>-11.51952380952382</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-11.25549603174603</v>
+        <v>-11.47998095238096</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.03736111111111384</v>
+        <v>-0.03954285714285355</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -935,16 +927,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-11.29809523809524</v>
+        <v>-11.52761904761905</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-11.2648492063492</v>
+        <v>-11.48933333333335</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.03324603174603524</v>
+        <v>-0.03828571428570804</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -952,16 +944,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-11.30285714285714</v>
+        <v>-11.53380952380953</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-11.27420238095238</v>
+        <v>-11.49868571428573</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.02865476190476457</v>
+        <v>-0.03512380952380489</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -969,16 +961,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-11.30666666666667</v>
+        <v>-11.53666666666667</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-11.28355555555555</v>
+        <v>-11.50803809523811</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.02311111111111508</v>
+        <v>-0.02862857142856789</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -986,16 +978,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-11.30904761904762</v>
+        <v>-11.54000000000001</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-11.29290873015873</v>
+        <v>-11.51739047619049</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.01613888888889292</v>
+        <v>-0.02260952380951942</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1003,16 +995,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-11.31476190476191</v>
+        <v>-11.54333333333334</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-11.3022619047619</v>
+        <v>-11.52674285714287</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.01250000000000107</v>
+        <v>-0.01659047619047271</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1020,16 +1012,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-11.31904761904762</v>
+        <v>-11.54619047619048</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-11.31161507936508</v>
+        <v>-11.53609523809525</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.007432539682541872</v>
+        <v>-0.01009523809523216</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1037,16 +1029,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-11.32571428571429</v>
+        <v>-11.55333333333334</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-11.32096825396825</v>
+        <v>-11.54544761904763</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.004746031746032386</v>
+        <v>-0.007885714285707834</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1054,16 +1046,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-11.33333333333334</v>
+        <v>-11.56000000000001</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-11.33032142857143</v>
+        <v>-11.55480000000001</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.003011904761908824</v>
+        <v>-0.005199999999994986</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1071,16 +1063,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-11.34047619047619</v>
+        <v>-11.56476190476191</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-11.3396746031746</v>
+        <v>-11.56415238095239</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.0008015873015896346</v>
+        <v>-0.0006095238095191746</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1088,16 +1080,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-11.34904761904762</v>
+        <v>-11.57380952380953</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-11.34902777777778</v>
+        <v>-11.57350476190477</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-1.98412698448891e-05</v>
+        <v>-0.000304761904757811</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1105,16 +1097,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-11.36</v>
+        <v>-11.58285714285715</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-11.35838095238095</v>
+        <v>-11.58285714285715</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.001619047619048075</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1122,16 +1114,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-11.36904761904762</v>
+        <v>-11.59619047619048</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-11.36773412698413</v>
+        <v>-11.59619047619048</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.001313492063493626</v>
+        <v>0</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1139,16 +1131,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-11.38047619047619</v>
+        <v>-11.61190476190477</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-11.3770873015873</v>
+        <v>-11.61190476190477</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.003388888888890662</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1156,16 +1148,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-11.39238095238095</v>
+        <v>-11.62714285714286</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-11.38644047619048</v>
+        <v>-11.62714285714286</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.005940476190477995</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1173,16 +1165,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-11.40714285714286</v>
+        <v>-11.64238095238096</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-11.39579365079365</v>
+        <v>-11.64238095238096</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.01134920634920888</v>
+        <v>0</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1190,16 +1182,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-11.42190476190476</v>
+        <v>-11.6604761904762</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-11.40514682539682</v>
+        <v>-11.6604761904762</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.016757936507938</v>
+        <v>0</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1207,16 +1199,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-11.43809523809524</v>
+        <v>-11.67809523809525</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-11.4145</v>
+        <v>-11.67809523809525</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.02359523809524156</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1224,16 +1216,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-11.45285714285714</v>
+        <v>-11.69952380952382</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-11.42385317460317</v>
+        <v>-11.69952380952382</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.02900396825397067</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1241,16 +1233,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-11.46761904761905</v>
+        <v>-11.72380952380953</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-11.43320634920635</v>
+        <v>-11.72380952380953</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.03441269841269978</v>
+        <v>0</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1258,16 +1250,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-11.47952380952381</v>
+        <v>-11.74904761904763</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-11.44255952380952</v>
+        <v>-11.74904761904763</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.03696428571428889</v>
+        <v>0</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1275,16 +1267,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-11.49095238095238</v>
+        <v>-11.77666666666667</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-11.4519126984127</v>
+        <v>-11.77666666666667</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.03903968253968415</v>
+        <v>0</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1292,16 +1284,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-11.5</v>
+        <v>-11.80285714285715</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-11.46126587301587</v>
+        <v>-11.80285714285715</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.03873412698412793</v>
+        <v>0</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1309,16 +1301,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-11.51095238095238</v>
+        <v>-11.82714285714286</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-11.47061904761905</v>
+        <v>-11.82714285714286</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.04033333333333466</v>
+        <v>0</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1326,16 +1318,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-11.51952380952381</v>
+        <v>-11.85238095238096</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-11.47997222222222</v>
+        <v>-11.85238095238096</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.03955158730158992</v>
+        <v>0</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1343,16 +1335,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-11.52761904761905</v>
+        <v>-11.8804761904762</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-11.4893253968254</v>
+        <v>-11.8804761904762</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.03829365079365132</v>
+        <v>0</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1360,16 +1352,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-11.53380952380953</v>
+        <v>-11.90904761904763</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-11.49867857142857</v>
+        <v>-11.90904761904763</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.03513095238095332</v>
+        <v>0</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1377,16 +1369,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-11.53666666666667</v>
+        <v>-11.94000000000001</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-11.50803174603175</v>
+        <v>-11.94000000000001</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.02863492063492146</v>
+        <v>0</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1394,16 +1386,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-11.54</v>
+        <v>-11.97000000000001</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-11.51738492063492</v>
+        <v>-11.97000000000001</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.02261507936507812</v>
+        <v>0</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1411,16 +1403,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-11.54333333333333</v>
+        <v>-11.99904761904763</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-11.52673809523809</v>
+        <v>-11.99904761904763</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.01659523809523833</v>
+        <v>0</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1428,16 +1420,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-11.54619047619047</v>
+        <v>-12.0304761904762</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-11.53609126984127</v>
+        <v>-12.0304761904762</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.01009920634920469</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1445,16 +1437,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-11.55333333333333</v>
+        <v>-12.06333333333334</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-11.54544444444444</v>
+        <v>-12.06333333333334</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.007888888888890833</v>
+        <v>0</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1462,16 +1454,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-11.56</v>
+        <v>-12.09571428571429</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-11.55479761904762</v>
+        <v>-12.09571428571429</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.005202380952381347</v>
+        <v>0</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1479,16 +1471,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-11.56476190476191</v>
+        <v>-12.12904761904763</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-11.56415079365079</v>
+        <v>-12.12904761904763</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.0006111111111124501</v>
+        <v>0</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1496,16 +1488,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-11.57380952380952</v>
+        <v>-12.16476190476191</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-11.57350396825397</v>
+        <v>-12.16476190476191</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.0003055555555544487</v>
+        <v>0</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1513,13 +1505,13 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-11.58285714285714</v>
+        <v>-12.19809523809525</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-11.58285714285714</v>
+        <v>-12.19809523809525</v>
       </c>
       <c r="D62" s="2" t="n">
         <v>0</v>
@@ -1530,13 +1522,13 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-11.59619047619048</v>
+        <v>-12.23619047619048</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-11.59619047619048</v>
+        <v>-12.23619047619048</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>0</v>
@@ -1547,13 +1539,13 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-11.61190476190476</v>
+        <v>-12.27666666666667</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-11.61190476190476</v>
+        <v>-12.27666666666667</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>0</v>
@@ -1564,13 +1556,13 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-11.62714285714286</v>
+        <v>-12.31714285714287</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-11.62714285714286</v>
+        <v>-12.31714285714287</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>0</v>
@@ -1581,13 +1573,13 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-11.64238095238095</v>
+        <v>-12.35857142857144</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-11.64238095238095</v>
+        <v>-12.35857142857144</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>0</v>
@@ -1598,13 +1590,13 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-11.66047619047619</v>
+        <v>-12.40000000000001</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-11.66047619047619</v>
+        <v>-12.40000000000001</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>0</v>
@@ -1615,13 +1607,13 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-11.67809523809524</v>
+        <v>-12.43952380952382</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-11.67809523809524</v>
+        <v>-12.43952380952382</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>0</v>
@@ -1632,13 +1624,13 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-11.69952380952381</v>
+        <v>-12.48380952380953</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-11.69952380952381</v>
+        <v>-12.48380952380953</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>0</v>
@@ -1649,13 +1641,13 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-11.72380952380952</v>
+        <v>-12.52904761904763</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-11.72380952380952</v>
+        <v>-12.52904761904763</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>0</v>
@@ -1666,13 +1658,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-11.74904761904762</v>
+        <v>-12.57476190476191</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-11.74904761904762</v>
+        <v>-12.57476190476191</v>
       </c>
       <c r="D71" s="2" t="n">
         <v>0</v>
@@ -1683,13 +1675,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-11.77666666666667</v>
+        <v>-12.62380952380953</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-11.77666666666667</v>
+        <v>-12.62380952380953</v>
       </c>
       <c r="D72" s="2" t="n">
         <v>0</v>
@@ -1700,13 +1692,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-11.80285714285715</v>
+        <v>-12.67380952380953</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-11.80285714285715</v>
+        <v>-12.67380952380953</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>0</v>
@@ -1717,13 +1709,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-11.82714285714286</v>
+        <v>-12.72476190476191</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-11.82714285714286</v>
+        <v>-12.72476190476191</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>0</v>
@@ -1734,13 +1726,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-11.85238095238095</v>
+        <v>-12.77952380952383</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-11.85238095238095</v>
+        <v>-12.77952380952383</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0</v>
@@ -1751,13 +1743,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-11.88047619047619</v>
+        <v>-12.83452380952383</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-11.88047619047619</v>
+        <v>-12.83452380952383</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>0</v>
@@ -1768,13 +1760,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-11.90904761904762</v>
+        <v>-12.88809523809526</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-11.90904761904762</v>
+        <v>-12.88809523809526</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>0</v>
@@ -1782,414 +1774,6 @@
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
       <c r="G77" s="2" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>-0.308</v>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>-11.94</v>
-      </c>
-      <c r="C78" s="2" t="n">
-        <v>-11.94</v>
-      </c>
-      <c r="D78" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" s="2" t="n"/>
-      <c r="F78" s="2" t="n"/>
-      <c r="G78" s="2" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>-0.312</v>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>-11.97</v>
-      </c>
-      <c r="C79" s="2" t="n">
-        <v>-11.97</v>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" s="2" t="n"/>
-      <c r="F79" s="2" t="n"/>
-      <c r="G79" s="2" t="n"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>-0.316</v>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>-11.99904761904762</v>
-      </c>
-      <c r="C80" s="2" t="n">
-        <v>-11.99904761904762</v>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" s="2" t="n"/>
-      <c r="F80" s="2" t="n"/>
-      <c r="G80" s="2" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>-12.03047619047619</v>
-      </c>
-      <c r="C81" s="2" t="n">
-        <v>-12.03047619047619</v>
-      </c>
-      <c r="D81" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" s="2" t="n"/>
-      <c r="F81" s="2" t="n"/>
-      <c r="G81" s="2" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>-0.324</v>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>-12.06333333333334</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>-12.06333333333334</v>
-      </c>
-      <c r="D82" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" s="2" t="n"/>
-      <c r="F82" s="2" t="n"/>
-      <c r="G82" s="2" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>-0.328</v>
-      </c>
-      <c r="B83" s="2" t="n">
-        <v>-12.09571428571429</v>
-      </c>
-      <c r="C83" s="2" t="n">
-        <v>-12.09571428571429</v>
-      </c>
-      <c r="D83" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" s="2" t="n"/>
-      <c r="F83" s="2" t="n"/>
-      <c r="G83" s="2" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>-0.332</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>-12.12904761904762</v>
-      </c>
-      <c r="C84" s="2" t="n">
-        <v>-12.12904761904762</v>
-      </c>
-      <c r="D84" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" s="2" t="n"/>
-      <c r="F84" s="2" t="n"/>
-      <c r="G84" s="2" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>-0.336</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>-12.16476190476191</v>
-      </c>
-      <c r="C85" s="2" t="n">
-        <v>-12.16476190476191</v>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" s="2" t="n"/>
-      <c r="F85" s="2" t="n"/>
-      <c r="G85" s="2" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>-12.19809523809524</v>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>-12.19809523809524</v>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" s="2" t="n"/>
-      <c r="F86" s="2" t="n"/>
-      <c r="G86" s="2" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>-0.344</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>-12.23619047619048</v>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>-12.23619047619048</v>
-      </c>
-      <c r="D87" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" s="2" t="n"/>
-      <c r="F87" s="2" t="n"/>
-      <c r="G87" s="2" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>-0.348</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>-12.27666666666667</v>
-      </c>
-      <c r="C88" s="2" t="n">
-        <v>-12.27666666666667</v>
-      </c>
-      <c r="D88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2" t="n"/>
-      <c r="F88" s="2" t="n"/>
-      <c r="G88" s="2" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>-0.352</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>-12.31714285714286</v>
-      </c>
-      <c r="C89" s="2" t="n">
-        <v>-12.31714285714286</v>
-      </c>
-      <c r="D89" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" s="2" t="n"/>
-      <c r="F89" s="2" t="n"/>
-      <c r="G89" s="2" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>-0.356</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>-12.35857142857143</v>
-      </c>
-      <c r="C90" s="2" t="n">
-        <v>-12.35857142857143</v>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" s="2" t="n"/>
-      <c r="F90" s="2" t="n"/>
-      <c r="G90" s="2" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>-0.36</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>-12.4</v>
-      </c>
-      <c r="C91" s="2" t="n">
-        <v>-12.4</v>
-      </c>
-      <c r="D91" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" s="2" t="n"/>
-      <c r="F91" s="2" t="n"/>
-      <c r="G91" s="2" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>-0.364</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>-12.43952380952381</v>
-      </c>
-      <c r="C92" s="2" t="n">
-        <v>-12.43952380952381</v>
-      </c>
-      <c r="D92" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" s="2" t="n"/>
-      <c r="F92" s="2" t="n"/>
-      <c r="G92" s="2" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>-0.368</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>-12.48380952380953</v>
-      </c>
-      <c r="C93" s="2" t="n">
-        <v>-12.48380952380953</v>
-      </c>
-      <c r="D93" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" s="2" t="n"/>
-      <c r="F93" s="2" t="n"/>
-      <c r="G93" s="2" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>-0.372</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>-12.52904761904762</v>
-      </c>
-      <c r="C94" s="2" t="n">
-        <v>-12.52904761904762</v>
-      </c>
-      <c r="D94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" s="2" t="n"/>
-      <c r="F94" s="2" t="n"/>
-      <c r="G94" s="2" t="n"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>-0.376</v>
-      </c>
-      <c r="B95" s="2" t="n">
-        <v>-12.57476190476191</v>
-      </c>
-      <c r="C95" s="2" t="n">
-        <v>-12.57476190476191</v>
-      </c>
-      <c r="D95" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" s="2" t="n"/>
-      <c r="F95" s="2" t="n"/>
-      <c r="G95" s="2" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>-0.38</v>
-      </c>
-      <c r="B96" s="2" t="n">
-        <v>-12.62380952380953</v>
-      </c>
-      <c r="C96" s="2" t="n">
-        <v>-12.62380952380953</v>
-      </c>
-      <c r="D96" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" s="2" t="n"/>
-      <c r="F96" s="2" t="n"/>
-      <c r="G96" s="2" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>-0.384</v>
-      </c>
-      <c r="B97" s="2" t="n">
-        <v>-12.67380952380953</v>
-      </c>
-      <c r="C97" s="2" t="n">
-        <v>-12.67380952380953</v>
-      </c>
-      <c r="D97" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" s="2" t="n"/>
-      <c r="F97" s="2" t="n"/>
-      <c r="G97" s="2" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>-0.388</v>
-      </c>
-      <c r="B98" s="2" t="n">
-        <v>-12.72476190476191</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>-12.72476190476191</v>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" s="2" t="n"/>
-      <c r="F98" s="2" t="n"/>
-      <c r="G98" s="2" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>-0.392</v>
-      </c>
-      <c r="B99" s="2" t="n">
-        <v>-12.77952380952382</v>
-      </c>
-      <c r="C99" s="2" t="n">
-        <v>-12.77952380952382</v>
-      </c>
-      <c r="D99" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" s="2" t="n"/>
-      <c r="F99" s="2" t="n"/>
-      <c r="G99" s="2" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>-0.396</v>
-      </c>
-      <c r="B100" s="2" t="n">
-        <v>-12.83452380952382</v>
-      </c>
-      <c r="C100" s="2" t="n">
-        <v>-12.83452380952382</v>
-      </c>
-      <c r="D100" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" s="2" t="n"/>
-      <c r="F100" s="2" t="n"/>
-      <c r="G100" s="2" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="B101" s="2" t="n">
-        <v>-12.88809523809526</v>
-      </c>
-      <c r="C101" s="2" t="n">
-        <v>-12.88809523809526</v>
-      </c>
-      <c r="D101" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" s="2" t="n"/>
-      <c r="F101" s="2" t="n"/>
-      <c r="G101" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2202,7 +1786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2228,34 +1812,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.148</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.1360555555555631</v>
+        <v>-0.001599999999994495</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.196</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.04494444444444667</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>-0.148</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>-0.001619047619048075</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>-0.196</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>-0.04033333333333466</v>
+        <v>-0.04032380952380521</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp6.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,92 +477,100 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-11.28952380952382</v>
+        <v>-11.02166666666667</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-11.28952380952382</v>
+        <v>-11.02166666666667</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.012</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.001599999999994495</v>
+        <v>-0.1360555555555525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-11.29190476190477</v>
+        <v>-11.13857142857143</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-11.29190476190477</v>
+        <v>-11.03101984126985</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>-0.1075515873015842</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.092</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.04032380952380521</v>
+        <v>-0.0449444444444449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-11.29690476190477</v>
+        <v>-11.17642857142858</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-11.29690476190477</v>
+        <v>-11.04037301587302</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
+        <v>-0.1360555555555525</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="n">
+        <v>-0.148</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>-0.001619047619048075</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-11.30285714285715</v>
+        <v>-11.1652380952381</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-11.30285714285715</v>
+        <v>-11.0497261904762</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
+        <v>-0.115511904761906</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="n">
+        <v>-0.196</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>-0.04033333333333466</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-11.30666666666668</v>
+        <v>-11.13952380952382</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-11.30666666666668</v>
+        <v>-11.05907936507937</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>-0.08044444444444743</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -570,16 +578,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-11.30904761904763</v>
+        <v>-11.13285714285715</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-11.30904761904763</v>
+        <v>-11.06843253968255</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0</v>
+        <v>-0.06442460317460608</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -587,16 +595,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-11.31476190476191</v>
+        <v>-11.12857142857144</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-11.31476190476191</v>
+        <v>-11.07778571428572</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0</v>
+        <v>-0.05078571428571621</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -604,16 +612,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-11.31904761904763</v>
+        <v>-11.12952380952382</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-11.31904761904763</v>
+        <v>-11.08713888888889</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0</v>
+        <v>-0.04238492063492316</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -621,16 +629,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-11.32571428571429</v>
+        <v>-11.13238095238096</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-11.32571428571429</v>
+        <v>-11.09649206349207</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>-0.0358888888888913</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -638,16 +646,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-11.33333333333334</v>
+        <v>-11.13619047619049</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-11.33333333333334</v>
+        <v>-11.10584523809525</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0</v>
+        <v>-0.03034523809524003</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -655,16 +663,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-11.3404761904762</v>
+        <v>-11.14142857142858</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-11.3404761904762</v>
+        <v>-11.11519841269842</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0</v>
+        <v>-0.02623015873015966</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -672,16 +680,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-11.34904761904763</v>
+        <v>-11.15095238095239</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-11.34904761904763</v>
+        <v>-11.12455158730159</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>-0.02640079365079551</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -689,16 +697,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-11.36000000000001</v>
+        <v>-11.16238095238096</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-11.35840000000001</v>
+        <v>-11.13390476190477</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.001599999999994495</v>
+        <v>-0.02847619047619077</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -706,16 +714,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-11.36904761904763</v>
+        <v>-11.17666666666667</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-11.36775238095239</v>
+        <v>-11.14325793650794</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.001295238095233131</v>
+        <v>-0.03340873015873136</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -723,16 +731,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-11.3804761904762</v>
+        <v>-11.18952380952382</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-11.37710476190477</v>
+        <v>-11.15261111111112</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.003371428571423252</v>
+        <v>-0.03691269841269929</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -740,16 +748,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-11.39238095238096</v>
+        <v>-11.20095238095239</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-11.38645714285715</v>
+        <v>-11.16196428571429</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.005923809523803669</v>
+        <v>-0.03898809523809454</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -757,16 +765,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-11.40714285714286</v>
+        <v>-11.21000000000001</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-11.39580952380954</v>
+        <v>-11.17131746031747</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.01133333333332764</v>
+        <v>-0.03868253968254187</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -774,16 +782,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-11.42190476190477</v>
+        <v>-11.21904761904763</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-11.40516190476192</v>
+        <v>-11.18067063492064</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.0167428571428534</v>
+        <v>-0.03837698412698387</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -791,16 +799,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-11.43809523809525</v>
+        <v>-11.23142857142858</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-11.4145142857143</v>
+        <v>-11.19002380952382</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.02358095238095004</v>
+        <v>-0.04140476190476328</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -808,16 +816,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-11.45285714285715</v>
+        <v>-11.24285714285715</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-11.42386666666668</v>
+        <v>-11.19937698412699</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.02899047619047401</v>
+        <v>-0.04348015873015854</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -825,16 +833,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-11.46761904761906</v>
+        <v>-11.25333333333334</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-11.43321904761906</v>
+        <v>-11.20873015873017</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.03439999999999799</v>
+        <v>-0.04460317460317498</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -842,16 +850,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-11.47952380952382</v>
+        <v>-11.26285714285715</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-11.44257142857144</v>
+        <v>-11.21808333333334</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.03695238095237663</v>
+        <v>-0.04477380952381083</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -859,16 +867,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-11.49095238095239</v>
+        <v>-11.27238095238096</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-11.45192380952382</v>
+        <v>-11.22743650793652</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.03902857142856853</v>
+        <v>-0.0449444444444449</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -876,16 +884,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-11.50000000000001</v>
+        <v>-11.27857142857144</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-11.4612761904762</v>
+        <v>-11.23678968253969</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.03872380952380539</v>
+        <v>-0.04178174603174867</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -893,16 +901,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-11.51095238095239</v>
+        <v>-11.28761904761906</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-11.47062857142858</v>
+        <v>-11.24614285714286</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.04032380952380521</v>
+        <v>-0.04147619047619244</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -910,16 +918,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-11.51952380952382</v>
+        <v>-11.29285714285715</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-11.47998095238096</v>
+        <v>-11.25549603174604</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.03954285714285355</v>
+        <v>-0.03736111111111384</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -927,16 +935,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-11.52761904761905</v>
+        <v>-11.29809523809525</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-11.48933333333335</v>
+        <v>-11.26484920634921</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.03828571428570804</v>
+        <v>-0.03324603174603347</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -944,16 +952,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-11.53380952380953</v>
+        <v>-11.30285714285715</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-11.49868571428573</v>
+        <v>-11.27420238095239</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.03512380952380489</v>
+        <v>-0.02865476190476279</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -961,16 +969,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-11.53666666666667</v>
+        <v>-11.30666666666667</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-11.50803809523811</v>
+        <v>-11.28355555555556</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.02862857142856789</v>
+        <v>-0.02311111111111153</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -978,16 +986,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-11.54000000000001</v>
+        <v>-11.30904761904763</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-11.51739047619049</v>
+        <v>-11.29290873015874</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.02260952380951942</v>
+        <v>-0.01613888888889115</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -995,16 +1003,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-11.54333333333334</v>
+        <v>-11.31476190476191</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-11.52674285714287</v>
+        <v>-11.30226190476191</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.01659047619047271</v>
+        <v>-0.01250000000000284</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1012,16 +1020,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-11.54619047619048</v>
+        <v>-11.31904761904763</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-11.53609523809525</v>
+        <v>-11.31161507936509</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.01009523809523216</v>
+        <v>-0.007432539682540096</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1029,16 +1037,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-11.55333333333334</v>
+        <v>-11.32571428571429</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-11.54544761904763</v>
+        <v>-11.32096825396826</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.007885714285707834</v>
+        <v>-0.004746031746032386</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1046,16 +1054,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-11.56000000000001</v>
+        <v>-11.33333333333334</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-11.55480000000001</v>
+        <v>-11.33032142857144</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.005199999999994986</v>
+        <v>-0.003011904761905271</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1063,16 +1071,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-11.56476190476191</v>
+        <v>-11.3404761904762</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-11.56415238095239</v>
+        <v>-11.33967460317461</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.0006095238095191746</v>
+        <v>-0.0008015873015896346</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1080,16 +1088,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-11.57380952380953</v>
+        <v>-11.34904761904763</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-11.57350476190477</v>
+        <v>-11.34902777777778</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.000304761904757811</v>
+        <v>-1.984126984311274e-05</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1097,16 +1105,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-11.58285714285715</v>
+        <v>-11.36000000000001</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-11.58285714285715</v>
+        <v>-11.35838095238096</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>-0.001619047619048075</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1114,16 +1122,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-11.59619047619048</v>
+        <v>-11.36904761904763</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-11.59619047619048</v>
+        <v>-11.36773412698413</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0</v>
+        <v>-0.00131349206349185</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1131,16 +1139,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-11.61190476190477</v>
+        <v>-11.3804761904762</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-11.61190476190477</v>
+        <v>-11.37708730158731</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0</v>
+        <v>-0.003388888888888886</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1148,16 +1156,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-11.62714285714286</v>
+        <v>-11.39238095238096</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-11.62714285714286</v>
+        <v>-11.38644047619048</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0</v>
+        <v>-0.005940476190476218</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1165,16 +1173,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-11.64238095238096</v>
+        <v>-11.40714285714286</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-11.64238095238096</v>
+        <v>-11.39579365079366</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0</v>
+        <v>-0.01134920634920533</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1182,16 +1190,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-11.6604761904762</v>
+        <v>-11.42190476190477</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-11.6604761904762</v>
+        <v>-11.40514682539683</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0</v>
+        <v>-0.016757936507938</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1199,16 +1207,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-11.67809523809525</v>
+        <v>-11.43809523809525</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-11.67809523809525</v>
+        <v>-11.41450000000001</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0</v>
+        <v>-0.02359523809523978</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1216,16 +1224,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-11.69952380952382</v>
+        <v>-11.45285714285715</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-11.69952380952382</v>
+        <v>-11.42385317460318</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0</v>
+        <v>-0.02900396825397067</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1233,16 +1241,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-11.72380952380953</v>
+        <v>-11.46761904761906</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-11.72380952380953</v>
+        <v>-11.43320634920636</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0</v>
+        <v>-0.03441269841269978</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1250,16 +1258,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-11.74904761904763</v>
+        <v>-11.47952380952382</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-11.74904761904763</v>
+        <v>-11.44255952380953</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0</v>
+        <v>-0.03696428571428889</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1267,16 +1275,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-11.77666666666667</v>
+        <v>-11.49095238095239</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-11.77666666666667</v>
+        <v>-11.45191269841271</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0</v>
+        <v>-0.03903968253968415</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1284,16 +1292,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-11.80285714285715</v>
+        <v>-11.50000000000001</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-11.80285714285715</v>
+        <v>-11.46126587301588</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0</v>
+        <v>-0.03873412698412793</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1301,16 +1309,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-11.82714285714286</v>
+        <v>-11.51095238095239</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-11.82714285714286</v>
+        <v>-11.47061904761905</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0</v>
+        <v>-0.04033333333333466</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1318,16 +1326,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-11.85238095238096</v>
+        <v>-11.51952380952382</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-11.85238095238096</v>
+        <v>-11.47997222222223</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0</v>
+        <v>-0.03955158730158637</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1335,16 +1343,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-11.8804761904762</v>
+        <v>-11.52761904761905</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-11.8804761904762</v>
+        <v>-11.4893253968254</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0</v>
+        <v>-0.03829365079365132</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1352,16 +1360,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-11.90904761904763</v>
+        <v>-11.53380952380953</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-11.90904761904763</v>
+        <v>-11.49867857142858</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0</v>
+        <v>-0.03513095238095154</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1369,16 +1377,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-11.94000000000001</v>
+        <v>-11.53666666666667</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-11.94000000000001</v>
+        <v>-11.50803174603175</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0</v>
+        <v>-0.02863492063492146</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1386,16 +1394,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-11.97000000000001</v>
+        <v>-11.54000000000001</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-11.97000000000001</v>
+        <v>-11.51738492063493</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>0</v>
+        <v>-0.02261507936507812</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1403,16 +1411,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-11.99904761904763</v>
+        <v>-11.54333333333334</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-11.99904761904763</v>
+        <v>-11.5267380952381</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0</v>
+        <v>-0.01659523809523833</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1420,16 +1428,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-12.0304761904762</v>
+        <v>-11.54619047619048</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-12.0304761904762</v>
+        <v>-11.53609126984128</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0</v>
+        <v>-0.01009920634920469</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1437,16 +1445,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-12.06333333333334</v>
+        <v>-11.55333333333334</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-12.06333333333334</v>
+        <v>-11.54544444444445</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>0</v>
+        <v>-0.007888888888890833</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1454,16 +1462,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-12.09571428571429</v>
+        <v>-11.56000000000001</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-12.09571428571429</v>
+        <v>-11.55479761904763</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0</v>
+        <v>-0.005202380952379571</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1471,16 +1479,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-12.12904761904763</v>
+        <v>-11.56476190476191</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-12.12904761904763</v>
+        <v>-11.5641507936508</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>0</v>
+        <v>-0.0006111111111106737</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1488,16 +1496,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-12.16476190476191</v>
+        <v>-11.57380952380953</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-12.16476190476191</v>
+        <v>-11.57350396825398</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0</v>
+        <v>-0.0003055555555544487</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1505,13 +1513,13 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-12.19809523809525</v>
+        <v>-11.58285714285715</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-12.19809523809525</v>
+        <v>-11.58285714285715</v>
       </c>
       <c r="D62" s="2" t="n">
         <v>0</v>
@@ -1522,13 +1530,13 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-12.23619047619048</v>
+        <v>-11.59619047619048</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-12.23619047619048</v>
+        <v>-11.59619047619048</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>0</v>
@@ -1539,13 +1547,13 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-12.27666666666667</v>
+        <v>-11.61190476190477</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-12.27666666666667</v>
+        <v>-11.61190476190477</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>0</v>
@@ -1556,13 +1564,13 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-12.31714285714287</v>
+        <v>-11.62714285714287</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-12.31714285714287</v>
+        <v>-11.62714285714287</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>0</v>
@@ -1573,13 +1581,13 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-12.35857142857144</v>
+        <v>-11.64238095238096</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-12.35857142857144</v>
+        <v>-11.64238095238096</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>0</v>
@@ -1590,13 +1598,13 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-12.40000000000001</v>
+        <v>-11.6604761904762</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-12.40000000000001</v>
+        <v>-11.6604761904762</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>0</v>
@@ -1607,13 +1615,13 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-12.43952380952382</v>
+        <v>-11.67809523809525</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-12.43952380952382</v>
+        <v>-11.67809523809525</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>0</v>
@@ -1624,13 +1632,13 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-12.48380952380953</v>
+        <v>-11.69952380952382</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-12.48380952380953</v>
+        <v>-11.69952380952382</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>0</v>
@@ -1641,13 +1649,13 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-12.52904761904763</v>
+        <v>-11.72380952380953</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-12.52904761904763</v>
+        <v>-11.72380952380953</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>0</v>
@@ -1658,13 +1666,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-12.57476190476191</v>
+        <v>-11.74904761904763</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-12.57476190476191</v>
+        <v>-11.74904761904763</v>
       </c>
       <c r="D71" s="2" t="n">
         <v>0</v>
@@ -1675,13 +1683,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-12.62380952380953</v>
+        <v>-11.77666666666667</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-12.62380952380953</v>
+        <v>-11.77666666666667</v>
       </c>
       <c r="D72" s="2" t="n">
         <v>0</v>
@@ -1692,13 +1700,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-12.67380952380953</v>
+        <v>-11.80285714285715</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-12.67380952380953</v>
+        <v>-11.80285714285715</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>0</v>
@@ -1709,13 +1717,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-12.72476190476191</v>
+        <v>-11.82714285714286</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-12.72476190476191</v>
+        <v>-11.82714285714286</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>0</v>
@@ -1726,13 +1734,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-12.77952380952383</v>
+        <v>-11.85238095238096</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-12.77952380952383</v>
+        <v>-11.85238095238096</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0</v>
@@ -1743,13 +1751,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-12.83452380952383</v>
+        <v>-11.8804761904762</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-12.83452380952383</v>
+        <v>-11.8804761904762</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>0</v>
@@ -1760,13 +1768,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-12.88809523809526</v>
+        <v>-11.90904761904763</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-12.88809523809526</v>
+        <v>-11.90904761904763</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>0</v>
@@ -1774,6 +1782,414 @@
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
       <c r="G77" s="2" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>-0.308</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>-11.94000000000001</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>-11.94000000000001</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2" t="n"/>
+      <c r="F78" s="2" t="n"/>
+      <c r="G78" s="2" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>-0.312</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>-11.97000000000001</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>-11.97000000000001</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2" t="n"/>
+      <c r="F79" s="2" t="n"/>
+      <c r="G79" s="2" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>-0.316</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>-11.99904761904763</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>-11.99904761904763</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2" t="n"/>
+      <c r="F80" s="2" t="n"/>
+      <c r="G80" s="2" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>-12.0304761904762</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>-12.0304761904762</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2" t="n"/>
+      <c r="F81" s="2" t="n"/>
+      <c r="G81" s="2" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>-0.324</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>-12.06333333333334</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>-12.06333333333334</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2" t="n"/>
+      <c r="F82" s="2" t="n"/>
+      <c r="G82" s="2" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>-0.328</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>-12.09571428571429</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>-12.09571428571429</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2" t="n"/>
+      <c r="F83" s="2" t="n"/>
+      <c r="G83" s="2" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>-0.332</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>-12.12904761904763</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>-12.12904761904763</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2" t="n"/>
+      <c r="F84" s="2" t="n"/>
+      <c r="G84" s="2" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>-0.336</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>-12.16476190476191</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>-12.16476190476191</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2" t="n"/>
+      <c r="F85" s="2" t="n"/>
+      <c r="G85" s="2" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>-12.19809523809525</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>-12.19809523809525</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2" t="n"/>
+      <c r="F86" s="2" t="n"/>
+      <c r="G86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>-0.344</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>-12.23619047619048</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>-12.23619047619048</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2" t="n"/>
+      <c r="F87" s="2" t="n"/>
+      <c r="G87" s="2" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>-0.348</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>-12.27666666666668</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>-12.27666666666668</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="n"/>
+      <c r="F88" s="2" t="n"/>
+      <c r="G88" s="2" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>-0.352</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>-12.31714285714287</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>-12.31714285714287</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2" t="n"/>
+      <c r="F89" s="2" t="n"/>
+      <c r="G89" s="2" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>-0.356</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>-12.35857142857144</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>-12.35857142857144</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2" t="n"/>
+      <c r="F90" s="2" t="n"/>
+      <c r="G90" s="2" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>-12.40000000000001</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>-12.40000000000001</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2" t="n"/>
+      <c r="F91" s="2" t="n"/>
+      <c r="G91" s="2" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>-0.364</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>-12.43952380952382</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>-12.43952380952382</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2" t="n"/>
+      <c r="F92" s="2" t="n"/>
+      <c r="G92" s="2" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>-0.368</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>-12.48380952380953</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>-12.48380952380953</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2" t="n"/>
+      <c r="F93" s="2" t="n"/>
+      <c r="G93" s="2" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>-0.372</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>-12.52904761904763</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>-12.52904761904763</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2" t="n"/>
+      <c r="F94" s="2" t="n"/>
+      <c r="G94" s="2" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>-0.376</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>-12.57476190476191</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>-12.57476190476191</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2" t="n"/>
+      <c r="F95" s="2" t="n"/>
+      <c r="G95" s="2" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>-12.62380952380953</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>-12.62380952380953</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2" t="n"/>
+      <c r="F96" s="2" t="n"/>
+      <c r="G96" s="2" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>-0.384</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>-12.67380952380953</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>-12.67380952380953</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2" t="n"/>
+      <c r="F97" s="2" t="n"/>
+      <c r="G97" s="2" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>-0.388</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>-12.72476190476191</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>-12.72476190476191</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" s="2" t="n"/>
+      <c r="F98" s="2" t="n"/>
+      <c r="G98" s="2" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>-0.392</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>-12.77952380952382</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>-12.77952380952382</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" s="2" t="n"/>
+      <c r="F99" s="2" t="n"/>
+      <c r="G99" s="2" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>-0.396</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>-12.83452380952383</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>-12.83452380952383</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" s="2" t="n"/>
+      <c r="F100" s="2" t="n"/>
+      <c r="G100" s="2" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>-12.88809523809526</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>-12.88809523809526</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2" t="n"/>
+      <c r="F101" s="2" t="n"/>
+      <c r="G101" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1786,7 +2202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1812,18 +2228,34 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.012</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.001599999999994495</v>
+        <v>-0.1360555555555525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>-0.092</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>-0.0449444444444449</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>-0.148</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>-0.001619047619048075</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>-0.196</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>-0.04032380952380521</v>
+      <c r="B5" s="2" t="n">
+        <v>-0.04033333333333466</v>
       </c>
     </row>
   </sheetData>
